--- a/medicine/Psychotrope/Entre-cœur/Entre-cœur.xlsx
+++ b/medicine/Psychotrope/Entre-cœur/Entre-cœur.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Entre-c%C5%93ur</t>
+          <t>Entre-cœur</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Un entrecœur, aussi appelé filleul, est un rameau secondaire latéral issu d'un bourgeon situé sur le rameau de l'année. Il est de taille inférieure au rameau principal, issu des bourgeons de l'année précédente.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Entre-c%C5%93ur</t>
+          <t>Entre-cœur</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,7 +523,9 @@
           <t>Biologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Celui-ci se développe le plus souvent lorsque l'apex du rameau de l'année est supprimé (coupé volontairement lors du rognage ou abîmé naturellement).
 </t>
@@ -524,7 +538,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Entre-c%C5%93ur</t>
+          <t>Entre-cœur</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -542,7 +556,9 @@
           <t>Rôle pour la vigne</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a pour but de pallier le rameau principal alors inapte à continuer sa croissance. L'entrecœur est plus petit que le rameau principal, il peut concurrencer le développement des raisins, dû à sa consommation d'énergie lors de sa croissance. L'entrecœur produit des feuilles, alors plus jeunes que les feuilles initiales, il est de ce fait plus apte à la photosynthèse car les feuilles anciennes sont peu photosynthétiques. Par la suite, l'entrecœur permet, s'il est maintenu à une longueur de quelques feuilles, de transmettre au raisin l'énergie nécessaire à sa maturation plus facilement que les autres feuilles déjà vieillies.
 Par ailleurs, il épaissit le feuillage et favorise l'apparition de champignons (oïdium, mildiou, botrytis cinerea,... ).
